--- a/bh3/546955168795531528_2021-07-13_22-25-24.xlsx
+++ b/bh3/546955168795531528_2021-07-13_22-25-24.xlsx
@@ -1682,7 +1682,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6238,7 +6238,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7423,7 +7423,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -8965,11 +8965,11 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -13089,7 +13089,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -13798,7 +13798,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13877,7 +13877,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14393,7 +14393,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14681,7 +14681,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15482,7 +15482,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15557,7 +15557,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16141,7 +16141,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -16421,7 +16421,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16851,7 +16851,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17380,7 +17380,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17455,7 +17455,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17672,7 +17672,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18216,7 +18216,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18508,7 +18508,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -19013,7 +19013,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19084,7 +19084,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -19163,7 +19163,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19534,7 +19534,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19739,7 +19739,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -20036,7 +20036,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20103,7 +20103,7 @@
         </is>
       </c>
       <c r="I271" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J271" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20686,7 +20686,7 @@
         </is>
       </c>
       <c r="I279" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J279" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -21049,7 +21049,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21125,7 +21125,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21200,7 +21200,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -21350,7 +21350,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21575,7 +21575,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -22073,7 +22073,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22144,7 +22144,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22434,7 +22434,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -22864,7 +22864,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -23156,11 +23156,11 @@
         </is>
       </c>
       <c r="I313" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23235,7 +23235,7 @@
         </is>
       </c>
       <c r="I314" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -24059,7 +24059,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -24505,7 +24505,7 @@
         </is>
       </c>
       <c r="I331" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J331" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24952,7 +24952,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -25023,7 +25023,7 @@
         </is>
       </c>
       <c r="I338" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J338" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25603,7 +25603,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -25682,7 +25682,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -26035,7 +26035,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -26264,7 +26264,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26339,7 +26339,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26406,7 +26406,7 @@
         </is>
       </c>
       <c r="I357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
@@ -26725,7 +26725,7 @@
         </is>
       </c>
       <c r="I361" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
@@ -27036,7 +27036,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -27249,7 +27249,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -27320,7 +27320,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -27588,7 +27588,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27730,7 +27730,7 @@
         </is>
       </c>
       <c r="I375" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J375" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         </is>
       </c>
       <c r="I377" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J377" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -28095,7 +28095,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -28166,7 +28166,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28588,7 +28588,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28881,7 +28881,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -29232,7 +29232,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -29370,7 +29370,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29714,7 +29714,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -30201,7 +30201,7 @@
         </is>
       </c>
       <c r="I410" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J410" t="inlineStr">
         <is>
@@ -30284,7 +30284,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -30430,7 +30430,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -30570,7 +30570,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -30716,7 +30716,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -30937,7 +30937,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -31364,7 +31364,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31443,7 +31443,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31518,11 +31518,11 @@
         </is>
       </c>
       <c r="I428" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31598,7 +31598,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -31899,7 +31899,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -31966,7 +31966,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -32041,11 +32041,11 @@
         </is>
       </c>
       <c r="I435" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -32112,7 +32112,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -32484,7 +32484,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -32697,7 +32697,7 @@
         </is>
       </c>
       <c r="I444" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J444" t="inlineStr">
         <is>
@@ -32780,7 +32780,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -32938,7 +32938,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -33009,7 +33009,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -33206,7 +33206,7 @@
         </is>
       </c>
       <c r="I451" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J451" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33368,7 +33368,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -33585,7 +33585,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33656,7 +33656,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -33814,7 +33814,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33877,7 +33877,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -34027,7 +34027,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -34106,7 +34106,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -34177,7 +34177,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -34253,7 +34253,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34332,7 +34332,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -34411,7 +34411,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -34490,7 +34490,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -34565,7 +34565,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -34644,7 +34644,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -34794,7 +34794,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -34865,7 +34865,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -34944,7 +34944,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -35090,7 +35090,7 @@
         </is>
       </c>
       <c r="I476" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J476" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -35232,7 +35232,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -35378,7 +35378,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -35541,7 +35541,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35687,7 +35687,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -35762,7 +35762,7 @@
         </is>
       </c>
       <c r="I485" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J485" t="inlineStr">
         <is>
@@ -35841,7 +35841,7 @@
         </is>
       </c>
       <c r="I486" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J486" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -36055,7 +36055,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -36446,7 +36446,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -36526,7 +36526,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -36709,7 +36709,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36785,11 +36785,11 @@
         </is>
       </c>
       <c r="I497" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -36920,7 +36920,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K498" t="inlineStr">
@@ -37000,7 +37000,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -37071,7 +37071,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -37321,7 +37321,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -37402,7 +37402,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -37477,7 +37477,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37552,11 +37552,11 @@
         </is>
       </c>
       <c r="I506" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -37714,7 +37714,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37785,7 +37785,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -37939,7 +37939,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -38014,7 +38014,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -38168,7 +38168,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -38235,7 +38235,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -38427,7 +38427,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -38507,7 +38507,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -38574,7 +38574,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38645,7 +38645,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -38716,7 +38716,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -38866,7 +38866,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -38942,7 +38942,7 @@
         </is>
       </c>
       <c r="I522" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J522" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -39685,7 +39685,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -39823,7 +39823,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -40301,7 +40301,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -40372,7 +40372,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -40526,7 +40526,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -40672,7 +40672,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -40747,7 +40747,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -40881,7 +40881,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40944,11 +40944,11 @@
         </is>
       </c>
       <c r="I548" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -41027,7 +41027,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -41106,7 +41106,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -41181,7 +41181,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -41252,7 +41252,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -41441,7 +41441,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -41769,7 +41769,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -41844,7 +41844,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -41976,7 +41976,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -42056,7 +42056,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -42135,7 +42135,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K562" t="inlineStr">
@@ -42206,7 +42206,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K563" t="inlineStr">
@@ -42452,11 +42452,11 @@
         </is>
       </c>
       <c r="I566" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -42603,7 +42603,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -42683,7 +42683,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -42826,7 +42826,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -42972,7 +42972,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -43109,7 +43109,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -43185,11 +43185,11 @@
         </is>
       </c>
       <c r="I573" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -43260,7 +43260,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -43410,7 +43410,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -43552,7 +43552,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -43623,7 +43623,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -44200,7 +44200,7 @@
         </is>
       </c>
       <c r="I585" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J585" t="inlineStr">
         <is>
@@ -44362,7 +44362,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -44437,7 +44437,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -44998,7 +44998,7 @@
         </is>
       </c>
       <c r="I593" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J593" t="inlineStr">
         <is>
@@ -45073,7 +45073,7 @@
         </is>
       </c>
       <c r="I594" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J594" t="inlineStr">
         <is>
@@ -45481,7 +45481,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -45556,11 +45556,11 @@
         </is>
       </c>
       <c r="I599" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -45706,7 +45706,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -45844,7 +45844,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -46660,7 +46660,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
@@ -46739,7 +46739,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
@@ -46877,7 +46877,7 @@
         </is>
       </c>
       <c r="I614" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J614" t="inlineStr">
         <is>
@@ -47021,7 +47021,7 @@
         </is>
       </c>
       <c r="I616" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J616" t="inlineStr">
         <is>
@@ -47168,7 +47168,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -47398,7 +47398,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
@@ -47477,7 +47477,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -47779,7 +47779,7 @@
         </is>
       </c>
       <c r="I625" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J625" t="inlineStr">
         <is>
@@ -48008,7 +48008,7 @@
         </is>
       </c>
       <c r="I628" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J628" t="inlineStr">
         <is>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="I629" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J629" t="inlineStr">
         <is>
@@ -48170,7 +48170,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K630" t="inlineStr">
@@ -48328,7 +48328,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K632" t="inlineStr">
@@ -48538,7 +48538,7 @@
         </is>
       </c>
       <c r="I635" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J635" t="inlineStr">
         <is>
@@ -48605,7 +48605,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K636" t="inlineStr">
@@ -48881,7 +48881,7 @@
         </is>
       </c>
       <c r="I640" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J640" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K643" t="inlineStr">
@@ -49556,7 +49556,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K649" t="inlineStr">
@@ -49714,7 +49714,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K651" t="inlineStr">
@@ -49781,7 +49781,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K652" t="inlineStr">
@@ -49860,7 +49860,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K653" t="inlineStr">
@@ -49932,11 +49932,11 @@
         </is>
       </c>
       <c r="I654" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K654" t="inlineStr">
@@ -50381,7 +50381,7 @@
         </is>
       </c>
       <c r="I660" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J660" t="inlineStr">
         <is>
@@ -50531,7 +50531,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -50683,7 +50683,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -50888,11 +50888,11 @@
         </is>
       </c>
       <c r="I667" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K667" t="inlineStr">
@@ -51105,7 +51105,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K670" t="inlineStr">
@@ -51251,7 +51251,7 @@
         </is>
       </c>
       <c r="I672" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J672" t="inlineStr">
         <is>
@@ -51318,7 +51318,7 @@
         </is>
       </c>
       <c r="I673" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J673" t="inlineStr">
         <is>
@@ -51456,11 +51456,11 @@
         </is>
       </c>
       <c r="I675" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -51672,7 +51672,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K678" t="inlineStr">
@@ -51743,7 +51743,7 @@
         </is>
       </c>
       <c r="I679" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J679" t="inlineStr">
         <is>
@@ -51964,7 +51964,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K682" t="inlineStr">
@@ -52189,7 +52189,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K685" t="inlineStr">
@@ -52268,7 +52268,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K686" t="inlineStr">
@@ -52339,7 +52339,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K687" t="inlineStr">
@@ -52402,7 +52402,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K688" t="inlineStr">
@@ -52469,7 +52469,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K689" t="inlineStr">
@@ -52604,11 +52604,11 @@
         </is>
       </c>
       <c r="I691" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -52837,7 +52837,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -52904,7 +52904,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K695" t="inlineStr">
@@ -52979,7 +52979,7 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K696" t="inlineStr">
@@ -53057,7 +53057,7 @@
         </is>
       </c>
       <c r="I697" t="n">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="J697" t="inlineStr">
         <is>
@@ -53140,7 +53140,7 @@
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K698" t="inlineStr">
@@ -53219,7 +53219,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K699" t="inlineStr">
@@ -53298,7 +53298,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -53377,7 +53377,7 @@
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K701" t="inlineStr">
@@ -53515,7 +53515,7 @@
         </is>
       </c>
       <c r="I703" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J703" t="inlineStr">
         <is>
@@ -53595,7 +53595,7 @@
         </is>
       </c>
       <c r="I704" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J704" t="inlineStr">
         <is>
@@ -53662,11 +53662,11 @@
         </is>
       </c>
       <c r="I705" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K705" t="inlineStr">
@@ -53824,7 +53824,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -53978,7 +53978,7 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K709" t="inlineStr">
@@ -54053,7 +54053,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K710" t="inlineStr">
@@ -54199,7 +54199,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K712" t="inlineStr">
@@ -54353,7 +54353,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K714" t="inlineStr">
@@ -54432,7 +54432,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K715" t="inlineStr">
@@ -54582,11 +54582,11 @@
         </is>
       </c>
       <c r="I717" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -54819,7 +54819,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K720" t="inlineStr">
@@ -54886,7 +54886,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -55099,7 +55099,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K724" t="inlineStr">
@@ -55162,7 +55162,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -55320,7 +55320,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -55700,7 +55700,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K732" t="inlineStr">
@@ -55771,7 +55771,7 @@
         </is>
       </c>
       <c r="I733" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J733" t="inlineStr">
         <is>
@@ -55846,7 +55846,7 @@
         </is>
       </c>
       <c r="I734" t="n">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="J734" t="inlineStr">
         <is>
@@ -55917,7 +55917,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K735" t="inlineStr">
@@ -55980,11 +55980,11 @@
         </is>
       </c>
       <c r="I736" t="n">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -56055,7 +56055,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -56122,11 +56122,11 @@
         </is>
       </c>
       <c r="I738" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K738" t="inlineStr">
@@ -56197,7 +56197,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K739" t="inlineStr">
@@ -56268,7 +56268,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -56485,11 +56485,11 @@
         </is>
       </c>
       <c r="I743" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K743" t="inlineStr">
@@ -56552,7 +56552,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K744" t="inlineStr">
@@ -56987,7 +56987,7 @@
         </is>
       </c>
       <c r="I750" t="n">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="J750" t="inlineStr">
         <is>
@@ -57267,7 +57267,7 @@
         </is>
       </c>
       <c r="I754" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J754" t="inlineStr">
         <is>
@@ -57346,7 +57346,7 @@
         </is>
       </c>
       <c r="I755" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J755" t="inlineStr">
         <is>
@@ -57429,7 +57429,7 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">

--- a/bh3/546955168795531528_2021-07-13_22-25-24.xlsx
+++ b/bh3/546955168795531528_2021-07-13_22-25-24.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8736,7 +8736,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9683,7 +9683,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -9962,7 +9962,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10238,7 +10238,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -11789,7 +11789,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -13018,7 +13018,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -14027,7 +14027,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -14393,7 +14393,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -15202,7 +15202,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15340,7 +15340,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -15853,7 +15853,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16713,7 +16713,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -16851,7 +16851,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -18019,7 +18019,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18082,7 +18082,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -18287,7 +18287,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18729,7 +18729,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19313,7 +19313,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19467,7 +19467,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19605,7 +19605,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -20174,7 +20174,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -20395,7 +20395,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20832,7 +20832,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -21125,7 +21125,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21279,7 +21279,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21429,7 +21429,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -21939,7 +21939,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -22568,7 +22568,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22647,7 +22647,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22714,7 +22714,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22785,7 +22785,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22935,7 +22935,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -23156,7 +23156,7 @@
         </is>
       </c>
       <c r="I313" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J313" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -23992,7 +23992,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -25106,7 +25106,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -25457,7 +25457,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25834,7 +25834,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25968,7 +25968,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -26264,7 +26264,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26571,7 +26571,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26879,7 +26879,7 @@
         </is>
       </c>
       <c r="I363" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J363" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -27032,11 +27032,11 @@
         </is>
       </c>
       <c r="I365" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -27249,7 +27249,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -27320,7 +27320,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27517,7 +27517,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27655,7 +27655,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -28454,7 +28454,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28588,7 +28588,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28739,7 +28739,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28948,7 +28948,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29019,7 +29019,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -29161,7 +29161,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -29303,7 +29303,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29370,7 +29370,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -29446,7 +29446,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29651,7 +29651,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -29924,7 +29924,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29999,7 +29999,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30062,7 +30062,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -30134,7 +30134,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -30499,7 +30499,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30570,7 +30570,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K415" t="inlineStr">
@@ -31005,7 +31005,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -31080,7 +31080,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -31151,7 +31151,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -31218,7 +31218,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -31297,7 +31297,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31673,7 +31673,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -31824,7 +31824,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -31899,7 +31899,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -32112,7 +32112,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -32270,7 +32270,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -32413,7 +32413,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -32484,7 +32484,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -32701,7 +32701,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -32780,7 +32780,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -32859,7 +32859,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -33072,7 +33072,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33210,7 +33210,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33735,7 +33735,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33956,7 +33956,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -35470,7 +35470,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
@@ -35687,7 +35687,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -35984,7 +35984,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -36055,7 +36055,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -36340,7 +36340,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -36446,7 +36446,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -36709,7 +36709,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36789,7 +36789,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -37000,7 +37000,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -37150,7 +37150,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -37321,7 +37321,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K503" t="inlineStr">
@@ -37402,7 +37402,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -37477,7 +37477,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -37714,7 +37714,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37860,7 +37860,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -38235,7 +38235,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -38574,7 +38574,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38645,7 +38645,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -38866,7 +38866,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
@@ -39390,7 +39390,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -39555,7 +39555,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -39685,7 +39685,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -40036,7 +40036,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -41593,7 +41593,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -42281,7 +42281,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -42456,7 +42456,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -42972,7 +42972,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -43189,7 +43189,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -43260,7 +43260,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -43623,7 +43623,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -44362,7 +44362,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -44437,7 +44437,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K588" t="inlineStr">
@@ -45322,7 +45322,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -45706,7 +45706,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -45844,7 +45844,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -46086,7 +46086,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K605" t="inlineStr">
@@ -47168,7 +47168,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
@@ -47477,7 +47477,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -48249,7 +48249,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K631" t="inlineStr">
@@ -49185,7 +49185,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K644" t="inlineStr">
@@ -49331,7 +49331,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K646" t="inlineStr">
@@ -50227,7 +50227,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K658" t="inlineStr">
@@ -50608,7 +50608,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -50683,7 +50683,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -51460,7 +51460,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K675" t="inlineStr">
@@ -52608,7 +52608,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -52758,7 +52758,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -52837,7 +52837,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -53057,11 +53057,11 @@
         </is>
       </c>
       <c r="I697" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -53519,7 +53519,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K703" t="inlineStr">
@@ -53599,7 +53599,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K704" t="inlineStr">
@@ -53745,7 +53745,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K706" t="inlineStr">
@@ -53824,7 +53824,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K707" t="inlineStr">
@@ -54586,7 +54586,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
@@ -54886,7 +54886,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K721" t="inlineStr">
@@ -55241,7 +55241,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K726" t="inlineStr">
@@ -55320,7 +55320,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
@@ -55399,7 +55399,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
@@ -55771,7 +55771,7 @@
         </is>
       </c>
       <c r="I733" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J733" t="inlineStr">
         <is>
@@ -55846,7 +55846,7 @@
         </is>
       </c>
       <c r="I734" t="n">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="J734" t="inlineStr">
         <is>
@@ -55980,11 +55980,11 @@
         </is>
       </c>
       <c r="I736" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K736" t="inlineStr">
@@ -56055,7 +56055,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K737" t="inlineStr">
@@ -56489,7 +56489,7 @@
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K743" t="inlineStr">
@@ -56699,7 +56699,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K746" t="inlineStr">
@@ -56845,7 +56845,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K748" t="inlineStr">
@@ -56987,11 +56987,11 @@
         </is>
       </c>
       <c r="I750" t="n">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K750" t="inlineStr">
@@ -57271,7 +57271,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K754" t="inlineStr">

--- a/bh3/546955168795531528_2021-07-13_22-25-24.xlsx
+++ b/bh3/546955168795531528_2021-07-13_22-25-24.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:42:54</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44403.738125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:13:34</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44395.71775462963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:32:15</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44395.5640625</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-18 04:12:01</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44395.17501157407</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-18 01:05:21</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44395.04538194444</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -902,10 +908,8 @@
           <t>4933327732</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:45:51</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44395.03184027778</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>4932014350</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:23:10</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44394.9744212963</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1060,10 +1062,8 @@
           <t>4932014350</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:21:59</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44394.97359953704</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1135,10 +1135,8 @@
           <t>4932014350</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:21:39</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44394.97336805556</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1210,10 +1208,8 @@
           <t>4932014350</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:20:37</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44394.97265046297</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1289,10 +1285,8 @@
           <t>4932014350</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:09:03</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44394.96461805556</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1364,10 +1358,8 @@
           <t>4932014350</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:55:11</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44394.91332175926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1443,10 +1435,8 @@
           <t>4930165600</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:42:47</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44394.73804398148</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1510,10 +1500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:00:56</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44394.58398148148</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1589,10 +1577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-17 11:48:14</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44394.49182870371</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1664,10 +1650,8 @@
           <t>4926102616</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-17 02:11:05</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44394.09103009259</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1735,10 +1719,8 @@
           <t>4925986687</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:35:58</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44394.06664351852</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1806,10 +1788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:05:03</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44394.04517361111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1885,10 +1865,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:23:20</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44393.93287037037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1952,10 +1930,8 @@
           <t>4904362649</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:47:25</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44393.6995949074</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2032,10 +2008,8 @@
           <t>4904783760</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:37:02</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44393.69238425926</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2107,10 +2081,8 @@
           <t>4904783760</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:29:53</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44393.68741898148</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2178,10 +2150,8 @@
           <t>4904783760</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:28:37</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44393.68653935185</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2249,10 +2219,8 @@
           <t>4916504320</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:17:56</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44393.67912037037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2323,10 +2291,8 @@
           <t>4904783760</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:15:58</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44393.67775462963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2398,10 +2364,8 @@
           <t>4903788101</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:08:48</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44393.67277777778</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2469,10 +2433,8 @@
           <t>4904783760</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:01:10</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44393.66747685185</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2540,10 +2502,8 @@
           <t>4921715875</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-16 15:48:41</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44393.65880787037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2611,10 +2571,8 @@
           <t>4921712609</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-16 15:48:08</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44393.65842592593</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2682,10 +2640,8 @@
           <t>4920980132</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-16 13:39:12</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44393.56888888889</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2749,10 +2705,8 @@
           <t>4920310357</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:03:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44393.50210648148</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2828,10 +2782,8 @@
           <t>4916504320</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:18:05</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44393.42922453704</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2895,10 +2847,8 @@
           <t>4919246198</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-16 08:44:42</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44393.364375</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2974,10 +2924,8 @@
           <t>4903795960</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-16 08:44:11</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44393.3640162037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3053,10 +3001,8 @@
           <t>4918405750</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:20:17</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44393.05575231482</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3120,10 +3066,8 @@
           <t>4905136354</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:03:12</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44393.04388888889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3195,10 +3139,8 @@
           <t>4905136354</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:00:49</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44393.0422337963</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3270,10 +3212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:00:38</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44393.00043981482</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3349,10 +3289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:40:49</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44392.98667824074</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3428,10 +3366,8 @@
           <t>4903939369</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:44:08</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44392.94731481482</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3499,10 +3435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:34:03</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44392.89864583333</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3574,10 +3508,8 @@
           <t>4916504320</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:49:34</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44392.86775462963</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3649,10 +3581,8 @@
           <t>4916504320</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:49:17</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44392.86755787037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3724,10 +3654,8 @@
           <t>4916504320</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:47:15</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44392.86614583333</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3799,10 +3727,8 @@
           <t>4904520320</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:03:53</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44392.83603009259</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3875,10 +3801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:57:53</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44392.83186342593</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3942,10 +3866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:15</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44392.80503472222</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4009,10 +3931,8 @@
           <t>4915467737</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:25:18</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44392.76756944445</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4088,10 +4008,8 @@
           <t>4904520320</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:23:37</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44392.76640046296</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4167,10 +4085,8 @@
           <t>4903783289</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:21:03</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44392.76461805555</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4246,10 +4162,8 @@
           <t>4904093606</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:17:59</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44392.76248842593</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4325,10 +4239,8 @@
           <t>4914223680</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:21:21</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44392.63982638889</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4400,10 +4312,8 @@
           <t>4914223680</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:09:31</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44392.6316087963</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4471,10 +4381,8 @@
           <t>4909333275</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:14:46</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44392.59358796296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4542,10 +4450,8 @@
           <t>4913864529</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:10</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44392.58692129629</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4618,10 +4524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:39</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44392.57753472222</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4689,10 +4593,8 @@
           <t>4903807498</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:59</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44392.50762731482</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4756,10 +4658,8 @@
           <t>4913053557</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:21</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44392.5071875</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4823,10 +4723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-15 10:51:20</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44392.45231481481</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4902,10 +4800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-15 10:47:31</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44392.44966435185</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4973,10 +4869,8 @@
           <t>4912492300</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-15 10:41:24</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44392.44541666667</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5052,10 +4946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-15 10:27:51</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44392.43600694444</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5131,10 +5023,8 @@
           <t>4912356113</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-15 10:17:15</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44392.42864583333</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5210,10 +5100,8 @@
           <t>4912047852</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-15 09:18:43</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44392.38799768518</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5285,10 +5173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-15 08:30:44</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44392.35467592593</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5356,10 +5242,8 @@
           <t>4909891506</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-15 08:28:17</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44392.35297453704</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5431,10 +5315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-15 07:17:38</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44392.30391203704</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5510,10 +5392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-15 06:51:54</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44392.28604166667</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5589,10 +5469,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-15 01:08:43</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44392.04771990741</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5664,10 +5542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-15 00:01:07</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44392.00077546296</v>
       </c>
       <c r="I71" t="n">
         <v>4</v>
@@ -5735,10 +5611,8 @@
           <t>4903901779</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-14 23:58:14</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44391.99877314815</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5810,10 +5684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-14 23:02:53</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44391.96033564815</v>
       </c>
       <c r="I73" t="n">
         <v>3</v>
@@ -5873,10 +5745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:50:53</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44391.95200231481</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5952,10 +5822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:49:15</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44391.95086805556</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -6015,10 +5883,8 @@
           <t>4909891506</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:38:31</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44391.94341435185</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -6090,10 +5956,8 @@
           <t>4909891506</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:33:12</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44391.93972222223</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6153,10 +6017,8 @@
           <t>4909891506</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:27:56</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44391.93606481481</v>
       </c>
       <c r="I78" t="n">
         <v>2</v>
@@ -6228,10 +6090,8 @@
           <t>4909891506</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:24:38</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44391.93377314815</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6291,10 +6151,8 @@
           <t>4909906512</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:24:36</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44391.93375</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6366,10 +6224,8 @@
           <t>4909891506</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:22:35</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44391.93234953703</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6441,10 +6297,8 @@
           <t>4909778748</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:08:51</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44391.9228125</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6512,10 +6366,8 @@
           <t>4909333275</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:08:14</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44391.92238425926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6586,10 +6438,8 @@
           <t>4909380913</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-14 21:14:29</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44391.88505787037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6661,10 +6511,8 @@
           <t>4909333275</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-14 21:07:56</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44391.88050925926</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6732,10 +6580,8 @@
           <t>4908530524</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-14 21:06:22</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44391.8794212963</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6804,10 +6650,8 @@
           <t>4909309038</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-14 21:05:24</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44391.87875</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6876,10 +6720,8 @@
           <t>4903815918</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-14 21:04:40</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44391.87824074074</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6948,10 +6790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-14 21:02:21</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44391.87663194445</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7023,10 +6863,8 @@
           <t>4908859983</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:59:52</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44391.87490740741</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7094,10 +6932,8 @@
           <t>4908859983</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:59:36</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44391.87472222222</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7174,10 +7010,8 @@
           <t>4908859983</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:44:15</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44391.8640625</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7254,10 +7088,8 @@
           <t>4908859983</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:42:09</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44391.86260416666</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7325,10 +7157,8 @@
           <t>4908859983</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:41:36</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44391.86222222223</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7409,10 +7239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:32:49</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44391.85612268518</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7476,10 +7304,8 @@
           <t>4904781700</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:26:58</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44391.85206018519</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7547,10 +7373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:26:02</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44391.85141203704</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7618,10 +7442,8 @@
           <t>4908981941</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:19:08</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44391.84662037037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7693,10 +7515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:18:12</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44391.84597222223</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7773,10 +7593,8 @@
           <t>4908951329</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:14:42</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44391.84354166667</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7848,10 +7666,8 @@
           <t>4908859983</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:03:51</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44391.83600694445</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7919,10 +7735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-14 19:32:40</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44391.81435185186</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -7990,10 +7804,8 @@
           <t>4908609649</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-14 19:30:11</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44391.81262731482</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8057,10 +7869,8 @@
           <t>4908530524</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-14 19:18:38</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44391.80460648148</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8120,10 +7930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-14 19:17:30</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44391.80381944445</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8183,10 +7991,8 @@
           <t>4904716457</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:43:44</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44391.78037037037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8250,10 +8056,8 @@
           <t>4908090148</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:19:52</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44391.7637962963</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8326,10 +8130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:17:02</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44391.7618287037</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8401,10 +8203,8 @@
           <t>4904716457</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:16:50</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44391.76168981481</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8480,10 +8280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:16:43</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44391.7616087963</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8555,10 +8353,8 @@
           <t>4903939466</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:14:38</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44391.76016203704</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8631,10 +8427,8 @@
           <t>4907857323</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-14 17:49:04</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44391.74240740741</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8710,10 +8504,8 @@
           <t>4904716457</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-14 17:48:19</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44391.74188657408</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8789,10 +8581,8 @@
           <t>4907834016</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-14 17:46:57</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44391.7409375</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8868,10 +8658,8 @@
           <t>4907835978</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-14 17:45:51</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44391.74017361111</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8947,10 +8735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-14 17:06:00</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44391.7125</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -9022,10 +8808,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:52:03</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44391.7028125</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9089,10 +8873,8 @@
           <t>4907482613</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:51:13</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44391.7022337963</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9160,10 +8942,8 @@
           <t>4903811479</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:18:18</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44391.679375</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9235,10 +9015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:16:52</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44391.67837962963</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9298,10 +9076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:16:00</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44391.67777777778</v>
       </c>
       <c r="I121" t="n">
         <v>4</v>
@@ -9369,10 +9145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:12:51</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44391.67559027778</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9448,10 +9222,8 @@
           <t>4906212894</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:12:33</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44391.67538194444</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9511,10 +9283,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:07:24</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44391.67180555555</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9590,10 +9360,8 @@
           <t>4903811479</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:02:10</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44391.6681712963</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9661,10 +9429,8 @@
           <t>4903811479</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-14 16:00:43</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44391.66716435185</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9736,10 +9502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:56:27</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44391.66420138889</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9807,10 +9571,8 @@
           <t>4903811479</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:54:30</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44391.66284722222</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9881,10 +9643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:39:56</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44391.65273148148</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -9952,10 +9712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:38:47</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44391.65193287037</v>
       </c>
       <c r="I130" t="n">
         <v>3</v>
@@ -10015,10 +9773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:38:36</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44391.65180555556</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10078,10 +9834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:25:47</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44391.64290509259</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10145,10 +9899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:24:21</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44391.64190972222</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10224,10 +9976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:23:26</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44391.64127314815</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10291,10 +10041,8 @@
           <t>4903816503</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:21:29</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44391.63991898148</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10358,10 +10106,8 @@
           <t>4906941314</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:11:58</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44391.63331018519</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10433,10 +10179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:55:59</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44391.62221064815</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10496,10 +10240,8 @@
           <t>4906823285</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:49:50</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44391.61793981482</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10567,10 +10309,8 @@
           <t>4906751817</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:34:42</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44391.60743055555</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10638,10 +10378,8 @@
           <t>4905112630</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:31:56</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44391.60550925926</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10701,10 +10439,8 @@
           <t>4904683702</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:24:56</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44391.60064814815</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10772,10 +10508,8 @@
           <t>4905112630</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:14:35</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44391.59346064815</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10847,10 +10581,8 @@
           <t>4905112630</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:55:07</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44391.57994212963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10910,10 +10642,8 @@
           <t>4906507453</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:49:04</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44391.57574074074</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10981,10 +10711,8 @@
           <t>4906498280</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:48:16</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44391.57518518518</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11052,10 +10780,8 @@
           <t>4904683702</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:41:46</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44391.57067129629</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11131,10 +10857,8 @@
           <t>4904344696</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:36:37</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44391.5670949074</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11210,10 +10934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:30:06</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44391.56256944445</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11285,10 +11007,8 @@
           <t>4906338286</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:20:47</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44391.55609953704</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11364,10 +11084,8 @@
           <t>4906224564</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:03:42</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44391.54423611111</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11431,10 +11149,8 @@
           <t>4906212894</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:01:23</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44391.54262731481</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11502,10 +11218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:57:41</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44391.54005787037</v>
       </c>
       <c r="I152" t="n">
         <v>5</v>
@@ -11571,10 +11285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:56:15</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44391.5390625</v>
       </c>
       <c r="I153" t="n">
         <v>11</v>
@@ -11643,10 +11355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:52:57</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44391.53677083334</v>
       </c>
       <c r="I154" t="n">
         <v>7</v>
@@ -11709,10 +11419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:52:34</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44391.53650462963</v>
       </c>
       <c r="I155" t="n">
         <v>6</v>
@@ -11772,10 +11480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:52:25</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44391.53640046297</v>
       </c>
       <c r="I156" t="n">
         <v>6</v>
@@ -11842,10 +11548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:52:17</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44391.53630787037</v>
       </c>
       <c r="I157" t="n">
         <v>5</v>
@@ -11905,10 +11609,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:40:18</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44391.52798611111</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11980,10 +11682,8 @@
           <t>4904093606</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:36:18</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44391.52520833333</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12059,10 +11759,8 @@
           <t>4904093606</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:36:08</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44391.52509259259</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12138,10 +11836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:28:03</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44391.51947916667</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12217,10 +11913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:23:34</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44391.51636574074</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12297,10 +11991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:22:27</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44391.51559027778</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12368,10 +12060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:17:10</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44391.5119212963</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12435,10 +12125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:12:54</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44391.50895833333</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12502,10 +12190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:04:34</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44391.5031712963</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12569,10 +12255,8 @@
           <t>4904344696</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:02:57</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44391.50204861111</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12641,10 +12325,8 @@
           <t>4903939466</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:02:32</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44391.50175925926</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12708,10 +12390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:46:32</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44391.49064814814</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12783,10 +12463,8 @@
           <t>4904802346</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:35:46</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44391.4831712963</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12854,10 +12532,8 @@
           <t>4903831301</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:29:45</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44391.47899305556</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12925,10 +12601,8 @@
           <t>4904683702</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:25:10</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44391.47581018518</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13004,10 +12678,8 @@
           <t>4905514617</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:16:37</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44391.46987268519</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13071,10 +12743,8 @@
           <t>4903869923</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:06:38</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44391.46293981482</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13142,10 +12812,8 @@
           <t>4904781700</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:01:41</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44391.45950231481</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13213,10 +12881,8 @@
           <t>4905112630</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:55:44</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44391.45537037037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13288,10 +12954,8 @@
           <t>4904732493</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:42:54</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44391.44645833333</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13359,10 +13023,8 @@
           <t>4905112630</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:40:40</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44391.44490740741</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13422,10 +13084,8 @@
           <t>4905314623</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:40:04</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44391.44449074074</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13486,10 +13146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:38:42</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44391.44354166667</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -13565,10 +13223,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:37:29</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44391.44269675926</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13628,10 +13284,8 @@
           <t>4904344696</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:35:22</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44391.44122685185</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13695,10 +13349,8 @@
           <t>4905288943</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:34:32</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44391.44064814815</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13776,10 +13428,8 @@
           <t>4905276743</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:32:24</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44391.43916666666</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13851,10 +13501,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:30:12</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44391.43763888889</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13930,10 +13578,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:29:16</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44391.43699074074</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14009,10 +13655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:29:03</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44391.43684027778</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14080,10 +13724,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:28:35</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44391.43651620371</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14152,10 +13794,8 @@
           <t>4905257878</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:28:30</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44391.43645833333</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14231,10 +13871,8 @@
           <t>4905236742</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:23:58</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44391.43331018519</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14294,10 +13932,8 @@
           <t>4904689788</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:23:57</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44391.43329861111</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14369,10 +14005,8 @@
           <t>4904005388</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:23:03</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44391.43267361111</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14446,10 +14080,8 @@
           <t>4905207382</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:18:33</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44391.42954861111</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14517,10 +14149,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:17:39</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44391.42892361111</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14592,10 +14222,8 @@
           <t>4905196633</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:16:44</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44391.42828703704</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14671,10 +14299,8 @@
           <t>4903815918</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:11:57</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44391.42496527778</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14734,10 +14360,8 @@
           <t>4903815918</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:09:36</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44391.42333333333</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14809,10 +14433,8 @@
           <t>4904330431</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:06:36</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44391.42125</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14884,10 +14506,8 @@
           <t>4904683702</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:05:59</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44391.42082175926</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14955,10 +14575,8 @@
           <t>4905137037</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:05:35</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44391.42054398148</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15030,10 +14648,8 @@
           <t>4905136354</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:05:12</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44391.42027777778</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15105,10 +14721,8 @@
           <t>4904689788</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:04:09</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44391.41954861111</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15180,10 +14794,8 @@
           <t>4905131475</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:03:34</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44391.41914351852</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15255,10 +14867,8 @@
           <t>4905121290</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:02:11</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44391.41818287037</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15326,10 +14936,8 @@
           <t>4905117433</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:01:07</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44391.41744212963</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15393,10 +15001,8 @@
           <t>4905109026</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:00:49</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44391.4172337963</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15460,10 +15066,8 @@
           <t>4904626849</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:00:48</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44391.41722222222</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15535,10 +15139,8 @@
           <t>4905112630</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:00:13</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44391.41681712963</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15610,10 +15212,8 @@
           <t>4904716457</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:59:22</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44391.41622685185</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15677,10 +15277,8 @@
           <t>4904683702</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:58:50</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44391.41585648148</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15752,10 +15350,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:58:38</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44391.41571759259</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15827,10 +15423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:58:25</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44391.41556712963</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15906,10 +15500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:55:48</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44391.41375</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15973,10 +15565,8 @@
           <t>4905083612</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:54:47</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44391.41304398148</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16044,10 +15634,8 @@
           <t>4905059029</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:49:44</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44391.40953703703</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16123,10 +15711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:47:43</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44391.40813657407</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16194,10 +15780,8 @@
           <t>4905039539</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:46:10</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44391.40706018519</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16265,10 +15849,8 @@
           <t>4903939369</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:41:49</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44391.40403935185</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16336,10 +15918,8 @@
           <t>4903869923</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:40:59</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44391.40346064815</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16403,10 +15983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:39:18</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44391.40229166667</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16474,10 +16052,8 @@
           <t>4904626849</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:26:07</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44391.39313657407</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16549,10 +16125,8 @@
           <t>4904941222</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:22:50</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44391.39085648148</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16616,10 +16190,8 @@
           <t>4903919632</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:22:37</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44391.39070601852</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16691,10 +16263,8 @@
           <t>4904925656</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:19:01</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44391.38820601852</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16766,10 +16336,8 @@
           <t>4903919632</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:12:00</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44391.38333333333</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16829,10 +16397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:09:35</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44391.38165509259</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16904,10 +16470,8 @@
           <t>4903816503</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:09:18</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44391.38145833334</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16979,10 +16543,8 @@
           <t>4904871822</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:08:40</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44391.38101851852</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17058,10 +16620,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:07:50</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44391.38043981481</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17133,10 +16693,8 @@
           <t>4904857398</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:05:40</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44391.37893518519</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17212,10 +16770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:05:06</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44391.37854166667</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17279,10 +16835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:04:19</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44391.37799768519</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17358,10 +16912,8 @@
           <t>4903919632</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:04:16</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44391.37796296296</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17433,10 +16985,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:01:21</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44391.3759375</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17508,10 +17058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:56:46</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44391.37275462963</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17583,10 +17131,8 @@
           <t>4903863135</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:56:19</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44391.37244212963</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17658,10 +17204,8 @@
           <t>4904759705</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:55:52</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44391.37212962963</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17725,10 +17269,8 @@
           <t>4903863135</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:55:40</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44391.37199074074</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17796,10 +17338,8 @@
           <t>4904759705</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:55:00</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44391.37152777778</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17863,10 +17403,8 @@
           <t>4903783289</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:54:41</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44391.37130787037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17934,10 +17472,8 @@
           <t>4904754034</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:54:35</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44391.37123842593</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18001,10 +17537,8 @@
           <t>4904810445</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:53:50</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44391.3707175926</v>
       </c>
       <c r="I242" t="n">
         <v>3</v>
@@ -18072,10 +17606,8 @@
           <t>4904802346</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:51:55</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44391.36938657407</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18135,10 +17667,8 @@
           <t>4904783760</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:49:03</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44391.36739583333</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18198,10 +17728,8 @@
           <t>4904787856</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:48:40</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44391.36712962963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18269,10 +17797,8 @@
           <t>4904781700</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:47:34</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44391.36636574074</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18340,10 +17866,8 @@
           <t>4904785092</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:46:36</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44391.36569444444</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18411,10 +17935,8 @@
           <t>4904683702</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:46:30</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44391.365625</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18482,10 +18004,8 @@
           <t>4904683702</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:44:53</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44391.36450231481</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18561,10 +18081,8 @@
           <t>4904775871</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:43:58</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44391.36386574074</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18632,10 +18150,8 @@
           <t>4904764937</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:43:16</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44391.36337962963</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18711,10 +18227,8 @@
           <t>4904759705</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:42:35</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44391.3629050926</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18782,10 +18296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:42:04</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44391.3625462963</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18853,10 +18365,8 @@
           <t>4904754034</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:41:58</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44391.36247685185</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18924,10 +18434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:39:42</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44391.36090277778</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18995,10 +18503,8 @@
           <t>4904755045</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:39:03</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44391.36045138889</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19066,10 +18572,8 @@
           <t>4904744199</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:38:22</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44391.35997685185</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19137,10 +18641,8 @@
           <t>4903869923</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:38:04</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44391.35976851852</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19216,10 +18718,8 @@
           <t>4904743741</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:38:02</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44391.35974537037</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19287,10 +18787,8 @@
           <t>4904737267</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:36:53</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44391.35894675926</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19366,10 +18864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:36:39</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44391.35878472222</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19441,10 +18937,8 @@
           <t>4903816503</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:36:39</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44391.35878472222</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19520,10 +19014,8 @@
           <t>4904732493</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:34:00</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44391.35694444444</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19587,10 +19079,8 @@
           <t>4903815918</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:33:01</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44391.35626157407</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19658,10 +19148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:32:53</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44391.35616898148</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19725,10 +19213,8 @@
           <t>4904719525</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:31:45</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44391.35538194444</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19792,10 +19278,8 @@
           <t>4903921395</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:31:31</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44391.3552199074</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19871,10 +19355,8 @@
           <t>4903816503</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:29:43</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44391.35396990741</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19946,10 +19428,8 @@
           <t>4904716457</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:29:25</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44391.35376157407</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20021,10 +19501,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:28:38</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44391.35321759259</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20089,10 +19567,8 @@
           <t>4903901779</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:28:35</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44391.35318287037</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -20160,10 +19636,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:27:26</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44391.35238425926</v>
       </c>
       <c r="I272" t="n">
         <v>7</v>
@@ -20227,10 +19701,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:27:24</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44391.35236111111</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20302,10 +19774,8 @@
           <t>4904689788</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:24:10</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44391.35011574074</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20377,10 +19847,8 @@
           <t>4904683702</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:22:25</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44391.34890046297</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20448,10 +19916,8 @@
           <t>4904670181</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:16:19</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44391.34466435185</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20523,10 +19989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:16:05</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44391.34450231482</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20598,10 +20062,8 @@
           <t>4903939369</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:13:37</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44391.34278935185</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20665,10 +20127,8 @@
           <t>4904640034</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:07:52</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44391.3387962963</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20743,10 +20203,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:06:49</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44391.33806712963</v>
       </c>
       <c r="I280" t="n">
         <v>4</v>
@@ -20810,10 +20268,8 @@
           <t>4904626849</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:05:05</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44391.33686342592</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -20885,10 +20341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:04:36</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44391.33652777778</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20956,10 +20410,8 @@
           <t>4903815918</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:04:31</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44391.33646990741</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21023,10 +20475,8 @@
           <t>4904093606</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:02:55</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44391.3353587963</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21102,10 +20552,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:56:01</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44391.33056712963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21178,10 +20626,8 @@
           <t>4904586928</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:54:10</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44391.32928240741</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21253,10 +20699,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:52:33</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44391.32815972222</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21332,10 +20776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:52:28</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44391.32810185185</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21403,10 +20845,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:52:17</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44391.32797453704</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21482,10 +20922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:50:15</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44391.3265625</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21553,10 +20991,8 @@
           <t>4904577217</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:50:10</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44391.32650462963</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21628,10 +21064,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:49:40</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44391.32615740741</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21704,10 +21138,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:48:21</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44391.32524305556</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21783,10 +21215,8 @@
           <t>4904093606</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:46:57</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44391.32427083333</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21854,10 +21284,8 @@
           <t>4904546898</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:39:32</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44391.31912037037</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21925,10 +21353,8 @@
           <t>4904540689</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:37:58</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44391.31803240741</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21992,10 +21418,8 @@
           <t>4904535316</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:34:56</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44391.31592592593</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22063,10 +21487,8 @@
           <t>4904526663</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:33:34</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44391.31497685185</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22126,10 +21548,8 @@
           <t>4903879295</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:32:48</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44391.31444444445</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -22197,10 +21617,8 @@
           <t>4904520320</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:29:32</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44391.31217592592</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22272,10 +21690,8 @@
           <t>4904516835</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:28:12</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44391.31125</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22353,10 +21769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:27:44</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44391.31092592593</v>
       </c>
       <c r="I302" t="n">
         <v>3</v>
@@ -22420,10 +21834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:25:37</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44391.30945601852</v>
       </c>
       <c r="I303" t="n">
         <v>4</v>
@@ -22487,10 +21899,8 @@
           <t>4904498396</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:23:56</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44391.30828703703</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22554,10 +21964,8 @@
           <t>4903845549</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:19:35</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44391.3052662037</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22621,10 +22029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:15:50</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44391.30266203704</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22700,10 +22106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:14:21</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44391.30163194444</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22767,10 +22171,8 @@
           <t>4904485836</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:14:11</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44391.3015162037</v>
       </c>
       <c r="I308" t="n">
         <v>2</v>
@@ -22838,10 +22240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:11:42</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44391.29979166666</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22917,10 +22317,8 @@
           <t>4904468470</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:10:35</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44391.2990162037</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22988,10 +22386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:05:03</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44391.29517361111</v>
       </c>
       <c r="I311" t="n">
         <v>4</v>
@@ -23067,10 +22463,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:02:24</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44391.29333333333</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23138,10 +22532,8 @@
           <t>4904447434</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:59:48</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44391.29152777778</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23213,10 +22605,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:56:33</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44391.28927083333</v>
       </c>
       <c r="I314" t="n">
         <v>6</v>
@@ -23292,10 +22682,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:56:08</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44391.28898148148</v>
       </c>
       <c r="I315" t="n">
         <v>10</v>
@@ -23371,10 +22759,8 @@
           <t>4904435901</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:50:07</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44391.28480324074</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23443,10 +22829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:49:16</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44391.28421296296</v>
       </c>
       <c r="I317" t="n">
         <v>7</v>
@@ -23510,10 +22894,8 @@
           <t>4904423196</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:45:08</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44391.28134259259</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23589,10 +22971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:43:59</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44391.28054398148</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23660,10 +23040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:36:54</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44391.275625</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23742,10 +23120,8 @@
           <t>4904404975</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:36:44</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44391.27550925926</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23824,10 +23200,8 @@
           <t>4904403350</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:33:05</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44391.27297453704</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23903,10 +23277,8 @@
           <t>4904403276</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:32:56</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44391.27287037037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23978,10 +23350,8 @@
           <t>4903816503</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:29:37</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44391.27056712963</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24045,10 +23415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:20:56</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44391.26453703704</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24112,10 +23480,8 @@
           <t>4904005388</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:10:39</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44391.25739583333</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24175,10 +23541,8 @@
           <t>4904378594</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:10:38</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44391.25738425926</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24264,10 +23628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:03:59</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44391.2527662037</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24337,10 +23699,8 @@
           <t>4904362649</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-14 05:51:31</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44391.24410879629</v>
       </c>
       <c r="I329" t="n">
         <v>4</v>
@@ -24416,10 +23776,8 @@
           <t>4904356129</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-14 05:44:20</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44391.23912037037</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24483,10 +23841,8 @@
           <t>4904360344</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-14 05:43:19</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44391.23841435185</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24562,10 +23918,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-14 05:42:20</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44391.23773148148</v>
       </c>
       <c r="I332" t="n">
         <v>7</v>
@@ -24641,10 +23995,8 @@
           <t>4904344696</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-14 05:39:00</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44391.23541666667</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24713,10 +24065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-14 05:36:00</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44391.23333333333</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24784,10 +24134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-14 05:19:17</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44391.22172453703</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24855,10 +24203,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-14 05:16:18</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44391.21965277778</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24930,10 +24276,8 @@
           <t>4904330431</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-14 05:03:15</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44391.21059027778</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25005,10 +24349,8 @@
           <t>4903809816</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-14 04:50:33</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44391.20177083334</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25080,10 +24422,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-14 04:34:52</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44391.19087962963</v>
       </c>
       <c r="I339" t="n">
         <v>5</v>
@@ -25159,10 +24499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-14 04:30:55</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44391.18813657408</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25234,10 +24572,8 @@
           <t>4903919632</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-14 04:28:22</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44391.18636574074</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25297,10 +24633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:58:10</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44391.16539351852</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25368,10 +24702,8 @@
           <t>4904254167</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:50:23</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44391.15998842593</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25431,10 +24763,8 @@
           <t>4904005388</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:32:32</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44391.14759259259</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25510,10 +24840,8 @@
           <t>4903946890</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:31:17</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44391.14672453704</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25589,10 +24917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:29:49</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44391.14570601852</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25656,10 +24982,8 @@
           <t>4903919632</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:29:41</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44391.14561342593</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25735,10 +25059,8 @@
           <t>4903809816</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:28:04</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44391.14449074074</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25816,10 +25138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:27:47</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44391.14429398148</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25887,10 +25207,8 @@
           <t>4904199841</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:07:31</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44391.13021990741</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25950,10 +25268,8 @@
           <t>4903873483</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:02:54</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44391.12701388889</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26021,10 +25337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:57:49</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44391.1234837963</v>
       </c>
       <c r="I352" t="n">
         <v>5</v>
@@ -26088,10 +25402,8 @@
           <t>4903811479</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:44:16</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44391.11407407407</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26163,10 +25475,8 @@
           <t>4904150154</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:34:33</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44391.10732638889</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26238,10 +25548,8 @@
           <t>4903831301</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:29:10</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44391.10358796296</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26317,10 +25625,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:27:44</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44391.10259259259</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26392,10 +25698,8 @@
           <t>4904124983</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:27:05</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44391.1021412037</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26463,10 +25767,8 @@
           <t>4904122924</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:24:11</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44391.10012731481</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26542,10 +25844,8 @@
           <t>4904122536</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:23:41</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44391.09978009259</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26624,10 +25924,8 @@
           <t>4903917101</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:16:24</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44391.09472222222</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26703,10 +26001,8 @@
           <t>4904093606</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:11:56</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44391.09162037037</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26782,10 +26078,8 @@
           <t>4903815918</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:10:28</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44391.09060185185</v>
       </c>
       <c r="I362" t="n">
         <v>5</v>
@@ -26857,10 +26151,8 @@
           <t>4903863135</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:08:46</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44391.0894212963</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -26936,10 +26228,8 @@
           <t>4904095194</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:07:18</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44391.08840277778</v>
       </c>
       <c r="I364" t="n">
         <v>4</v>
@@ -27018,10 +26308,8 @@
           <t>4904084121</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:05:48</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44391.08736111111</v>
       </c>
       <c r="I365" t="n">
         <v>10</v>
@@ -27089,10 +26377,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:03:51</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44391.08600694445</v>
       </c>
       <c r="I366" t="n">
         <v>4</v>
@@ -27164,10 +26450,8 @@
           <t>4904074032</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:03:18</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44391.085625</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -27231,10 +26515,8 @@
           <t>4904058483</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:02:38</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44391.08516203704</v>
       </c>
       <c r="I368" t="n">
         <v>2</v>
@@ -27302,10 +26584,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:59:59</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44391.08332175926</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27373,10 +26653,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:58:30</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44391.08229166667</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27440,10 +26718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:55:56</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44391.08050925926</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27503,10 +26779,8 @@
           <t>4904058483</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:54:24</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44391.07944444445</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27570,10 +26844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:49:02</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44391.07571759259</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27641,10 +26913,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:46:06</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44391.07368055556</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27708,10 +26978,8 @@
           <t>4903939369</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:03:31</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44391.0441087963</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27787,10 +27055,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-14 01:03:30</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44391.04409722222</v>
       </c>
       <c r="I376" t="n">
         <v>5</v>
@@ -27858,10 +27124,8 @@
           <t>4904034324</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:59:08</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44391.04106481482</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27929,10 +27193,8 @@
           <t>4904029439</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:54:50</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44391.03807870371</v>
       </c>
       <c r="I378" t="n">
         <v>6</v>
@@ -28002,10 +27264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:51:36</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44391.03583333334</v>
       </c>
       <c r="I379" t="n">
         <v>84</v>
@@ -28073,10 +27333,8 @@
           <t>4904035893</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:50:34</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44391.03511574074</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28148,10 +27406,8 @@
           <t>4904026935</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:48:09</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44391.0334375</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -28219,10 +27475,8 @@
           <t>4904019707</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:46:38</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44391.03238425926</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28290,10 +27544,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:40:39</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44391.02822916667</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28361,10 +27613,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:37:30</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44391.02604166666</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28436,10 +27686,8 @@
           <t>4904008226</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:35:39</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44391.02475694445</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28507,10 +27755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:35:13</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44391.02445601852</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28574,10 +27820,8 @@
           <t>4903938427</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:35:13</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44391.02445601852</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28641,10 +27885,8 @@
           <t>4904006655</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:33:15</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44391.02309027778</v>
       </c>
       <c r="I388" t="n">
         <v>17</v>
@@ -28725,10 +27967,8 @@
           <t>4904005388</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:31:30</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44391.021875</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28792,10 +28032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:31:19</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44391.02174768518</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28867,10 +28105,8 @@
           <t>4903994511</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:30:24</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44391.02111111111</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28934,10 +28170,8 @@
           <t>4903996477</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:30:00</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44391.02083333334</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29001,10 +28235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:29:42</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44391.020625</v>
       </c>
       <c r="I393" t="n">
         <v>4</v>
@@ -29072,10 +28304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:28:41</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44391.01991898148</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29143,10 +28373,8 @@
           <t>4903815918</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:27:41</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44391.01922453703</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29214,10 +28442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:26:59</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44391.01873842593</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29285,10 +28511,8 @@
           <t>4903987068</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:26:28</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44391.01837962963</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29356,10 +28580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:25:46</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44391.01789351852</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29423,10 +28645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:21:08</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44391.01467592592</v>
       </c>
       <c r="I399" t="n">
         <v>2</v>
@@ -29499,10 +28719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:50:01</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44390.95140046296</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29570,10 +28788,8 @@
           <t>4903961293</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:50:01</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44390.95140046296</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29641,10 +28857,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:49:58</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44390.95136574074</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29704,10 +28918,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:49:37</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44390.95112268518</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29767,10 +28979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:49:28</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44390.95101851852</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29838,10 +29048,8 @@
           <t>4903952226</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:49:28</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44390.95101851852</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29913,10 +29121,8 @@
           <t>4903815918</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:49:16</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44390.95087962963</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29977,10 +29183,8 @@
           <t>4903951461</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:49:11</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44390.95082175926</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30052,10 +29256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:49:08</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44390.95078703704</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30115,10 +29317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:51</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44390.95059027777</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30187,10 +29387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:50</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44390.95057870371</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30258,10 +29456,8 @@
           <t>4903939466</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:50</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44390.95057870371</v>
       </c>
       <c r="I411" t="n">
         <v>5</v>
@@ -30337,10 +29533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:48</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44390.95055555556</v>
       </c>
       <c r="I412" t="n">
         <v>4</v>
@@ -30412,10 +29606,8 @@
           <t>4903947844</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:43</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44390.95049768518</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -30483,10 +29675,8 @@
           <t>4903939710</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:33</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44390.95038194444</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30552,10 +29742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:31</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44390.9503587963</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30623,10 +29811,8 @@
           <t>4903939466</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:28</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44390.95032407407</v>
       </c>
       <c r="I416" t="n">
         <v>5</v>
@@ -30698,10 +29884,8 @@
           <t>4903939369</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:26</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44390.95030092593</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30769,10 +29953,8 @@
           <t>4903946890</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:22</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44390.95025462963</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30848,10 +30030,8 @@
           <t>4903815918</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:21</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44390.95024305556</v>
       </c>
       <c r="I419" t="n">
         <v>3</v>
@@ -30915,10 +30095,8 @@
           <t>4903938427</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:06</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44390.95006944444</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -30990,10 +30168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:48:03</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44390.95003472222</v>
       </c>
       <c r="I421" t="n">
         <v>3</v>
@@ -31058,10 +30234,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:55</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44390.94994212963</v>
       </c>
       <c r="I422" t="n">
         <v>2</v>
@@ -31133,10 +30307,8 @@
           <t>4903917101</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:53</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44390.94991898148</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31204,10 +30376,8 @@
           <t>4903917101</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:45</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44390.94982638889</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31271,10 +30441,8 @@
           <t>4903917101</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:39</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44390.94975694444</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31350,10 +30518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:37</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44390.9497337963</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31417,10 +30583,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:36</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44390.94972222222</v>
       </c>
       <c r="I427" t="n">
         <v>4</v>
@@ -31496,10 +30660,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:31</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44390.94966435185</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31575,10 +30737,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:31</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44390.94966435185</v>
       </c>
       <c r="I429" t="n">
         <v>31</v>
@@ -31651,10 +30811,8 @@
           <t>4903936788</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:30</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44390.94965277778</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31726,10 +30884,8 @@
           <t>4903940828</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:27</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44390.94961805556</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31806,10 +30962,8 @@
           <t>4903934233</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:23</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44390.94957175926</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -31877,10 +31031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:22</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44390.94956018519</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31952,10 +31104,8 @@
           <t>4903936232</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:18</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44390.94951388889</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32019,10 +31169,8 @@
           <t>4903863135</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:56</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44390.94925925926</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32098,10 +31246,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:54</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44390.94923611111</v>
       </c>
       <c r="I436" t="n">
         <v>8</v>
@@ -32165,10 +31311,8 @@
           <t>4903929239</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:50</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44390.94918981481</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32244,10 +31388,8 @@
           <t>4903932735</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:50</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44390.94918981481</v>
       </c>
       <c r="I438" t="n">
         <v>2</v>
@@ -32323,10 +31465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:49</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44390.94917824074</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32386,10 +31526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:44</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44390.94912037037</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32466,10 +31604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:33</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44390.94899305556</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32537,10 +31673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:28</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44390.94893518519</v>
       </c>
       <c r="I442" t="n">
         <v>3</v>
@@ -32604,10 +31738,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:13</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44390.94876157407</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32675,10 +31807,8 @@
           <t>4903917101</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:01</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44390.94862268519</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32754,10 +31884,8 @@
           <t>4903863135</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:46:01</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44390.94862268519</v>
       </c>
       <c r="I445" t="n">
         <v>4</v>
@@ -32833,10 +31961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:58</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44390.94858796296</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -32912,10 +32038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:53</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44390.9485300926</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32991,10 +32115,8 @@
           <t>4903919632</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:41</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44390.9483912037</v>
       </c>
       <c r="I448" t="n">
         <v>6</v>
@@ -33062,10 +32184,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:41</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44390.9483912037</v>
       </c>
       <c r="I449" t="n">
         <v>5</v>
@@ -33125,10 +32245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:40</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44390.94837962963</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33192,10 +32310,8 @@
           <t>4903926289</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:40</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44390.94837962963</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33263,10 +32379,8 @@
           <t>4903921395</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:35</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44390.94832175926</v>
       </c>
       <c r="I452" t="n">
         <v>7</v>
@@ -33342,10 +32456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:32</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44390.94828703703</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33421,10 +32533,8 @@
           <t>4903845549</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:13</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44390.94806712963</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33496,10 +32606,8 @@
           <t>4903925061</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:11</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44390.94804398148</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33571,10 +32679,8 @@
           <t>4903918252</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:11</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44390.94804398148</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -33638,10 +32744,8 @@
           <t>4903823794</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:11</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44390.94804398148</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33709,10 +32813,8 @@
           <t>4903882964</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:02</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44390.94793981482</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33788,10 +32890,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:45:00</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44390.94791666666</v>
       </c>
       <c r="I459" t="n">
         <v>3</v>
@@ -33867,10 +32967,8 @@
           <t>4903882964</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:48</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44390.94777777778</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33930,10 +33028,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:47</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44390.9477662037</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34009,10 +33105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:38</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44390.94766203704</v>
       </c>
       <c r="I462" t="n">
         <v>10</v>
@@ -34080,10 +33174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:38</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44390.94766203704</v>
       </c>
       <c r="I463" t="n">
         <v>2</v>
@@ -34159,10 +33251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:35</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44390.94762731482</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34230,10 +33320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:34</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44390.94761574074</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34306,10 +33394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:34</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44390.94761574074</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34385,10 +33471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:29</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44390.94755787037</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34464,10 +33548,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:26</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44390.94752314815</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34543,10 +33625,8 @@
           <t>4903915566</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:11</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44390.94734953704</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34618,10 +33698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:10</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44390.94733796296</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34697,10 +33775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:06</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44390.94729166666</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34768,10 +33844,8 @@
           <t>4903907237</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:03</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44390.94725694445</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34847,10 +33921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:44:02</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44390.94724537037</v>
       </c>
       <c r="I473" t="n">
         <v>18</v>
@@ -34918,10 +33990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:43:58</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44390.94719907407</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34997,10 +34067,8 @@
           <t>4903904996</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:43:58</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44390.94719907407</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35076,10 +34144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:43:49</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44390.94709490741</v>
       </c>
       <c r="I476" t="n">
         <v>4</v>
@@ -35147,10 +34213,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:43:47</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44390.94707175926</v>
       </c>
       <c r="I477" t="n">
         <v>16</v>
@@ -35210,10 +34274,8 @@
           <t>4903882964</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:43:46</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44390.94706018519</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35285,10 +34347,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:43:43</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44390.94702546296</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35352,10 +34412,8 @@
           <t>4903904121</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:43:39</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44390.94697916666</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35431,10 +34489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:43:29</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44390.94686342592</v>
       </c>
       <c r="I481" t="n">
         <v>3</v>
@@ -35523,10 +34579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:59</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44390.9465162037</v>
       </c>
       <c r="I482" t="n">
         <v>7</v>
@@ -35594,10 +34648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:53</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44390.94644675926</v>
       </c>
       <c r="I483" t="n">
         <v>2</v>
@@ -35661,10 +34713,8 @@
           <t>4903811479</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:52</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44390.94643518519</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35740,10 +34790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:51</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44390.94642361111</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35819,10 +34867,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:50</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44390.94641203704</v>
       </c>
       <c r="I486" t="n">
         <v>76</v>
@@ -35898,10 +34944,8 @@
           <t>4903901779</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:48</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44390.94638888889</v>
       </c>
       <c r="I487" t="n">
         <v>33</v>
@@ -35969,10 +35013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:44</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44390.94634259259</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36037,10 +35079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:40</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44390.94629629629</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36108,10 +35148,8 @@
           <t>4903823794</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:26</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44390.94613425926</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36187,10 +35225,8 @@
           <t>4903811479</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:25</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44390.94612268519</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36313,10 +35349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:24</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44390.94611111111</v>
       </c>
       <c r="I492" t="n">
         <v>9</v>
@@ -36393,10 +35427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:21</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44390.94607638889</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36499,10 +35531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:20</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44390.94606481482</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36579,10 +35609,8 @@
           <t>4903823794</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:19</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44390.94605324074</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36654,10 +35682,8 @@
           <t>4903897190</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:18</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44390.94604166667</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36762,10 +35788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:15</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44390.94600694445</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36842,10 +35866,8 @@
           <t>4903845549</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:12</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44390.94597222222</v>
       </c>
       <c r="I498" t="n">
         <v>14</v>
@@ -36973,10 +35995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:11</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44390.94596064815</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -37053,10 +36073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:01</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44390.94584490741</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37124,10 +36142,8 @@
           <t>4903889542</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:42:00</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44390.94583333333</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37203,10 +36219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:59</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44390.94582175926</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37278,10 +36292,8 @@
           <t>4903783289</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:58</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44390.94581018519</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37374,10 +36386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:57</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44390.94579861111</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37455,10 +36465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:49</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44390.94570601852</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37530,10 +36538,8 @@
           <t>4903891267</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:43</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44390.94563657408</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37609,10 +36615,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:28</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44390.94546296296</v>
       </c>
       <c r="I507" t="n">
         <v>43</v>
@@ -37688,10 +36692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:26</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44390.94543981482</v>
       </c>
       <c r="I508" t="n">
         <v>2</v>
@@ -37767,10 +36769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:18</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44390.94534722222</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37838,10 +36838,8 @@
           <t>4903887382</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:12</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44390.94527777778</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37913,10 +36911,8 @@
           <t>4903836537</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:10</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44390.94525462963</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37992,10 +36988,8 @@
           <t>4903883593</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:01</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44390.94515046296</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38067,10 +37061,8 @@
           <t>4903883575</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:41:00</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44390.94513888889</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38142,10 +37134,8 @@
           <t>4903879495</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:59</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44390.94512731482</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38221,10 +37211,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:56</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44390.94509259259</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38288,10 +37276,8 @@
           <t>4903879295</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:54</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44390.94506944445</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38480,10 +37466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:53</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44390.94505787037</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38560,10 +37544,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:53</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44390.94505787037</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38627,10 +37609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:48</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44390.945</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38698,10 +37678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:47</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44390.94498842592</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38769,10 +37747,8 @@
           <t>4903882964</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:47</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44390.94498842592</v>
       </c>
       <c r="I521" t="n">
         <v>2</v>
@@ -38919,10 +37895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:44</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44390.94495370371</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38999,10 +37973,8 @@
           <t>4903882793</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:43</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44390.94494212963</v>
       </c>
       <c r="I523" t="n">
         <v>20</v>
@@ -39062,10 +38034,8 @@
           <t>4903886183</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:43</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44390.94494212963</v>
       </c>
       <c r="I524" t="n">
         <v>2</v>
@@ -39141,10 +38111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:39</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44390.94489583333</v>
       </c>
       <c r="I525" t="n">
         <v>3</v>
@@ -39212,10 +38180,8 @@
           <t>4903882574</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:38</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44390.94488425926</v>
       </c>
       <c r="I526" t="n">
         <v>3</v>
@@ -39287,10 +38253,8 @@
           <t>4903789718</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:37</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44390.94487268518</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39443,10 +38407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:30</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44390.94479166667</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39523,10 +38485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:30</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44390.94479166667</v>
       </c>
       <c r="I529" t="n">
         <v>2</v>
@@ -39608,10 +38568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:24</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44390.94472222222</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -39675,10 +38633,8 @@
           <t>4903811479</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:22</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44390.94469907408</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39738,10 +38694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:19</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44390.94466435185</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39805,10 +38759,8 @@
           <t>4903823794</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:19</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44390.94466435185</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39876,10 +38828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:17</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44390.94464120371</v>
       </c>
       <c r="I534" t="n">
         <v>6</v>
@@ -39951,10 +38901,8 @@
           <t>4903874774</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:13</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44390.94459490741</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -40026,10 +38974,8 @@
           <t>4903880983</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:05</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44390.94450231481</v>
       </c>
       <c r="I536" t="n">
         <v>6</v>
@@ -40089,10 +39035,8 @@
           <t>4903788101</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:40:04</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44390.94449074074</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -40203,10 +39147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:58</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44390.9444212963</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -40283,10 +39225,8 @@
           <t>4903783289</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:52</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44390.94435185185</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -40354,10 +39294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:50</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44390.94432870371</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -40425,10 +39363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:47</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44390.94429398148</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40504,10 +39440,8 @@
           <t>4903873483</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:45</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44390.94427083333</v>
       </c>
       <c r="I542" t="n">
         <v>5</v>
@@ -40579,10 +39513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:43</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44390.94424768518</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40658,10 +39590,8 @@
           <t>4903869923</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:43</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44390.94424768518</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -40725,10 +39655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:40</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44390.94421296296</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40800,10 +39728,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:39</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44390.94420138889</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40867,10 +39793,8 @@
           <t>4903823794</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:38</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44390.94418981481</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40934,10 +39858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:37</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44390.94417824074</v>
       </c>
       <c r="I548" t="n">
         <v>4</v>
@@ -41001,10 +39923,8 @@
           <t>4903845549</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:27</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44390.9440625</v>
       </c>
       <c r="I549" t="n">
         <v>10</v>
@@ -41080,10 +40000,8 @@
           <t>4903872586</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:25</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44390.94403935185</v>
       </c>
       <c r="I550" t="n">
         <v>2</v>
@@ -41159,10 +40077,8 @@
           <t>4903872510</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:23</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44390.94401620371</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -41234,10 +40150,8 @@
           <t>4903788101</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:23</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44390.94401620371</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -41305,10 +40219,8 @@
           <t>4903842482</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:22</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44390.94400462963</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -41376,10 +40288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:15</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44390.94392361111</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41494,10 +40404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:13</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44390.94390046296</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41574,10 +40482,8 @@
           <t>4903845549</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:12</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44390.94388888889</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41646,10 +40552,8 @@
           <t>4903836537</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:10</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44390.94386574074</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41742,10 +40646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:39:03</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44390.94378472222</v>
       </c>
       <c r="I558" t="n">
         <v>1</v>
@@ -41822,10 +40724,8 @@
           <t>4903864278</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:56</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44390.94370370371</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41897,10 +40797,8 @@
           <t>4903864142</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:53</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44390.94366898148</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -42029,10 +40927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:52</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44390.94365740741</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -42109,10 +41005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:40</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44390.94351851852</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -42188,10 +41082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:36</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44390.94347222222</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -42259,10 +41151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:34</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44390.94344907408</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -42334,10 +41224,8 @@
           <t>4903836537</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:34</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44390.94344907408</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -42429,10 +41317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:33</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44390.9434375</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -42509,10 +41395,8 @@
           <t>4903863135</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:29</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44390.94339120371</v>
       </c>
       <c r="I567" t="n">
         <v>103</v>
@@ -42656,10 +41540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:25</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44390.94334490741</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42736,10 +41618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:24</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44390.94333333334</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42812,10 +41692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:21</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44390.94329861111</v>
       </c>
       <c r="I570" t="n">
         <v>21</v>
@@ -42879,10 +41757,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:15</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44390.94322916667</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -43025,10 +41901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:13</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44390.94320601852</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -43162,10 +42036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:07</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44390.94313657407</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -43242,10 +42114,8 @@
           <t>4903801069</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:05</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44390.94311342593</v>
       </c>
       <c r="I574" t="n">
         <v>23</v>
@@ -43313,10 +42183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:59</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44390.94304398148</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -43388,10 +42256,8 @@
           <t>4903823794</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:58</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44390.94303240741</v>
       </c>
       <c r="I576" t="n">
         <v>1</v>
@@ -43463,10 +42329,8 @@
           <t>4903861726</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:55</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44390.94299768518</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -43534,10 +42398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:53</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44390.94297453704</v>
       </c>
       <c r="I578" t="n">
         <v>29</v>
@@ -43605,10 +42467,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:51</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44390.94295138889</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -43676,10 +42536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:48</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44390.94291666667</v>
       </c>
       <c r="I580" t="n">
         <v>2</v>
@@ -43795,10 +42653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:45</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44390.94288194444</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43904,10 +42760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:36</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44390.94277777777</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43984,10 +42838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:29</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44390.94269675926</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -44102,10 +42954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:23</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44390.94262731481</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -44182,10 +43032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:21</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44390.94260416667</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -44257,10 +43105,8 @@
           <t>4903856665</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:16</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44390.9425462963</v>
       </c>
       <c r="I586" t="n">
         <v>25</v>
@@ -44336,10 +43182,8 @@
           <t>4903849542</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:37:05</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44390.94241898148</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -44415,10 +43259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:58</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44390.94233796297</v>
       </c>
       <c r="I588" t="n">
         <v>1</v>
@@ -44490,10 +43332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:58</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44390.94233796297</v>
       </c>
       <c r="I589" t="n">
         <v>1</v>
@@ -44569,10 +43409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:58</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44390.94233796297</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -44721,10 +43559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:50</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44390.94224537037</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -44801,10 +43637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:50</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44390.94224537037</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -44975,10 +43809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:43</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44390.94216435185</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -45055,10 +43887,8 @@
           <t>4903840845</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:39</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44390.94211805556</v>
       </c>
       <c r="I594" t="n">
         <v>56</v>
@@ -45130,10 +43960,8 @@
           <t>4903840845</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:39</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44390.94211805556</v>
       </c>
       <c r="I595" t="n">
         <v>46</v>
@@ -45197,10 +44025,8 @@
           <t>4903845549</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:34</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44390.94206018518</v>
       </c>
       <c r="I596" t="n">
         <v>3</v>
@@ -45375,10 +44201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:32</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44390.94203703704</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -45455,10 +44279,8 @@
           <t>4903844443</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:27</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44390.94197916667</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -45534,10 +44356,8 @@
           <t>4903844308</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:24</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44390.94194444444</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -45613,10 +44433,8 @@
           <t>4903850422</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:20</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44390.94189814815</v>
       </c>
       <c r="I600" t="n">
         <v>11</v>
@@ -45680,10 +44498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:12</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44390.94180555556</v>
       </c>
       <c r="I601" t="n">
         <v>2</v>
@@ -45759,10 +44575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:10</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44390.9417824074</v>
       </c>
       <c r="I602" t="n">
         <v>1</v>
@@ -45834,10 +44648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:09</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44390.94177083333</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -45897,10 +44709,8 @@
           <t>4903839763</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:06</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44390.94173611111</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -46059,10 +44869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:36:02</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44390.94168981481</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -46139,10 +44947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:57</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44390.94163194444</v>
       </c>
       <c r="I606" t="n">
         <v>12</v>
@@ -46210,10 +45016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:56</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44390.94162037037</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -46328,10 +45132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:55</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44390.9416087963</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -46408,10 +45210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:49</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44390.94153935185</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -46562,10 +45362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:47</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44390.9415162037</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -46642,10 +45440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:44</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44390.94148148148</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -46713,10 +45509,8 @@
           <t>4903842482</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:43</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44390.9414699074</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -46792,10 +45586,8 @@
           <t>4903836537</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:42</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44390.94145833333</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -46855,10 +45647,8 @@
           <t>4903838453</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:38</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44390.94141203703</v>
       </c>
       <c r="I614" t="n">
         <v>2</v>
@@ -46934,10 +45724,8 @@
           <t>4903842142</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:35</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44390.94137731481</v>
       </c>
       <c r="I615" t="n">
         <v>4</v>
@@ -47007,10 +45795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:31</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44390.94133101852</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -47078,10 +45864,8 @@
           <t>4903845549</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:30</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44390.94131944444</v>
       </c>
       <c r="I617" t="n">
         <v>61</v>
@@ -47145,10 +45929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:29</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44390.94130787037</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -47221,10 +46003,8 @@
           <t>4903837992</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:28</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44390.9412962963</v>
       </c>
       <c r="I619" t="n">
         <v>1</v>
@@ -47371,10 +46151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:21</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44390.94121527778</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -47451,10 +46229,8 @@
           <t>4903837660</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:21</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44390.94121527778</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -47530,10 +46306,8 @@
           <t>4903845036</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:17</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44390.94116898148</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -47626,10 +46400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:16</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44390.9411574074</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -47706,10 +46478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:10</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44390.94108796296</v>
       </c>
       <c r="I624" t="n">
         <v>4</v>
@@ -47769,10 +46539,8 @@
           <t>4903816503</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:07</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44390.94105324074</v>
       </c>
       <c r="I625" t="n">
         <v>1</v>
@@ -47836,10 +46604,8 @@
           <t>4903840845</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:35:07</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44390.94105324074</v>
       </c>
       <c r="I626" t="n">
         <v>5</v>
@@ -47915,10 +46681,8 @@
           <t>4903836537</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:34:57</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44390.9409375</v>
       </c>
       <c r="I627" t="n">
         <v>2</v>
@@ -47990,10 +46754,8 @@
           <t>4903836150</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:34:48</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44390.94083333333</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -48065,10 +46827,8 @@
           <t>4903833788</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:34:48</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44390.94083333333</v>
       </c>
       <c r="I629" t="n">
         <v>24</v>
@@ -48144,10 +46904,8 @@
           <t>4903833735</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:34:46</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44390.94081018519</v>
       </c>
       <c r="I630" t="n">
         <v>64</v>
@@ -48223,10 +46981,8 @@
           <t>4903833337</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:34:37</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44390.94070601852</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -48302,10 +47058,8 @@
           <t>4903828960</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:34:26</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44390.9405787037</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -48381,10 +47135,8 @@
           <t>4903828931</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:34:25</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44390.94056712963</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -48460,10 +47212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:34:23</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44390.94054398148</v>
       </c>
       <c r="I634" t="n">
         <v>10</v>
@@ -48523,10 +47273,8 @@
           <t>4903828637</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:34:19</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44390.94049768519</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -48595,10 +47343,8 @@
           <t>4903828209</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:34:09</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44390.94038194444</v>
       </c>
       <c r="I636" t="n">
         <v>3</v>
@@ -48658,10 +47404,8 @@
           <t>4903823794</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:59</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44390.9402662037</v>
       </c>
       <c r="I637" t="n">
         <v>1</v>
@@ -48725,10 +47469,8 @@
           <t>4903827563</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:55</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44390.94021990741</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -48800,10 +47542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:53</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44390.94019675926</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -48867,10 +47607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:50</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44390.94016203703</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -48938,10 +47676,8 @@
           <t>4903831301</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:48</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44390.94013888889</v>
       </c>
       <c r="I641" t="n">
         <v>6</v>
@@ -49009,10 +47745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:47</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44390.94012731482</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -49080,10 +47814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:45</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44390.94010416666</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -49159,10 +47891,8 @@
           <t>4903831093</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:44</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44390.94009259259</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -49238,10 +47968,8 @@
           <t>4903822791</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:38</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44390.94002314815</v>
       </c>
       <c r="I645" t="n">
         <v>6</v>
@@ -49309,10 +48037,8 @@
           <t>4903822781</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:37</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44390.94001157407</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -49384,10 +48110,8 @@
           <t>4903783289</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:37</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44390.94001157407</v>
       </c>
       <c r="I647" t="n">
         <v>3</v>
@@ -49459,10 +48183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:27</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44390.93989583333</v>
       </c>
       <c r="I648" t="n">
         <v>2</v>
@@ -49530,10 +48252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:20</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44390.93981481482</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -49609,10 +48329,8 @@
           <t>4903786328</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:14</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44390.93974537037</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -49688,10 +48406,8 @@
           <t>4903819613</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:08</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44390.93967592593</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -49767,10 +48483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:04</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44390.93962962963</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -49834,10 +48548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:59</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44390.93957175926</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -49913,10 +48625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:58</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44390.93956018519</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -49989,10 +48699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:52</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44390.93949074074</v>
       </c>
       <c r="I655" t="n">
         <v>91</v>
@@ -50075,10 +48783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:49</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44390.93945601852</v>
       </c>
       <c r="I656" t="n">
         <v>1</v>
@@ -50146,10 +48852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:46</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44390.93942129629</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -50209,10 +48913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:44</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44390.93939814815</v>
       </c>
       <c r="I658" t="n">
         <v>2</v>
@@ -50280,10 +48982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:41</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44390.93936342592</v>
       </c>
       <c r="I659" t="n">
         <v>2</v>
@@ -50359,10 +49059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:40</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44390.93935185186</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -50438,10 +49136,8 @@
           <t>4903816576</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:39</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44390.93934027778</v>
       </c>
       <c r="I661" t="n">
         <v>5</v>
@@ -50509,10 +49205,8 @@
           <t>4903783289</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:37</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44390.93931712963</v>
       </c>
       <c r="I662" t="n">
         <v>4</v>
@@ -50584,10 +49278,8 @@
           <t>4903809969</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:37</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44390.93931712963</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -50661,10 +49353,8 @@
           <t>4903809816</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:34</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44390.93928240741</v>
       </c>
       <c r="I664" t="n">
         <v>5</v>
@@ -50736,10 +49426,8 @@
           <t>4903813634</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:29</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44390.93922453704</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -50803,10 +49491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:16</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44390.93907407407</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -50870,10 +49556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:03</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44390.93892361111</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -50945,10 +49629,8 @@
           <t>4903816833</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:01</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44390.93890046296</v>
       </c>
       <c r="I668" t="n">
         <v>5</v>
@@ -51024,10 +49706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:56</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44390.93884259259</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -51091,10 +49771,8 @@
           <t>4903816576</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:55</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44390.93883101852</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
@@ -51158,10 +49836,8 @@
           <t>4903783289</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:54</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44390.93881944445</v>
       </c>
       <c r="I671" t="n">
         <v>1</v>
@@ -51229,10 +49905,8 @@
           <t>4903816503</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:53</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44390.93880787037</v>
       </c>
       <c r="I672" t="n">
         <v>5</v>
@@ -51308,10 +49982,8 @@
           <t>4903807600</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:47</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44390.93873842592</v>
       </c>
       <c r="I673" t="n">
         <v>9</v>
@@ -51375,10 +50047,8 @@
           <t>4903816257</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:47</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44390.93873842592</v>
       </c>
       <c r="I674" t="n">
         <v>29</v>
@@ -51438,10 +50108,8 @@
           <t>4903807498</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:46</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44390.93872685185</v>
       </c>
       <c r="I675" t="n">
         <v>19</v>
@@ -51513,10 +50181,8 @@
           <t>4903811634</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:45</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44390.93871527778</v>
       </c>
       <c r="I676" t="n">
         <v>5</v>
@@ -51581,10 +50247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:44</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44390.9387037037</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -51658,10 +50322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:42</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44390.93868055556</v>
       </c>
       <c r="I678" t="n">
         <v>1</v>
@@ -51725,10 +50387,8 @@
           <t>4903811479</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:42</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44390.93868055556</v>
       </c>
       <c r="I679" t="n">
         <v>4</v>
@@ -51800,10 +50460,8 @@
           <t>4903815918</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:39</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44390.93864583333</v>
       </c>
       <c r="I680" t="n">
         <v>92</v>
@@ -51863,10 +50521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:36</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44390.93861111111</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -51938,10 +50594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:31</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44390.93855324074</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -52017,10 +50671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:29</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44390.93853009259</v>
       </c>
       <c r="I683" t="n">
         <v>3</v>
@@ -52096,10 +50748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:27</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44390.93850694445</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -52175,10 +50825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:20</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44390.93842592592</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -52242,10 +50890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:19</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44390.93841435185</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -52321,10 +50967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:14</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44390.93835648148</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -52392,10 +51036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:07</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44390.93827546296</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -52455,10 +51097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:04</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44390.93824074074</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -52522,10 +51162,8 @@
           <t>4903804061</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:56</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44390.93814814815</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -52589,10 +51227,8 @@
           <t>4903789718</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:53</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44390.93811342592</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -52661,10 +51297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:45</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44390.93802083333</v>
       </c>
       <c r="I692" t="n">
         <v>206</v>
@@ -52732,10 +51366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:44</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44390.93800925926</v>
       </c>
       <c r="I693" t="n">
         <v>1</v>
@@ -52811,10 +51443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:43</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44390.93799768519</v>
       </c>
       <c r="I694" t="n">
         <v>4</v>
@@ -52890,10 +51520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:43</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44390.93799768519</v>
       </c>
       <c r="I695" t="n">
         <v>1</v>
@@ -52957,10 +51585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:33</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44390.93788194445</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
@@ -53032,10 +51658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:30</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44390.93784722222</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -53114,10 +51738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:14</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44390.93766203704</v>
       </c>
       <c r="I698" t="n">
         <v>512</v>
@@ -53193,10 +51815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:08</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44390.93759259259</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -53272,10 +51892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:06</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44390.93756944445</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -53351,10 +51969,8 @@
           <t>4903801939</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:05</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44390.93755787037</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
@@ -53430,10 +52046,8 @@
           <t>4903792492</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:03</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44390.93753472222</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -53501,10 +52115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:51</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44390.93739583333</v>
       </c>
       <c r="I703" t="n">
         <v>1</v>
@@ -53572,10 +52184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:48</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44390.93736111111</v>
       </c>
       <c r="I704" t="n">
         <v>259</v>
@@ -53652,10 +52262,8 @@
           <t>4903801069</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:44</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44390.93731481482</v>
       </c>
       <c r="I705" t="n">
         <v>12</v>
@@ -53719,10 +52327,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:44</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44390.93731481482</v>
       </c>
       <c r="I706" t="n">
         <v>11</v>
@@ -53798,10 +52404,8 @@
           <t>4903795960</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:40</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44390.93726851852</v>
       </c>
       <c r="I707" t="n">
         <v>3</v>
@@ -53877,10 +52481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:26</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44390.93710648148</v>
       </c>
       <c r="I708" t="n">
         <v>5</v>
@@ -53952,10 +52554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:15</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44390.93697916667</v>
       </c>
       <c r="I709" t="n">
         <v>1</v>
@@ -54031,10 +52631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:15</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44390.93697916667</v>
       </c>
       <c r="I710" t="n">
         <v>1</v>
@@ -54106,10 +52704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:14</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44390.93696759259</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
@@ -54185,10 +52781,8 @@
           <t>4903789718</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:11</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44390.93693287037</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -54252,10 +52846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:06</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44390.936875</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
@@ -54327,10 +52919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:06</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44390.936875</v>
       </c>
       <c r="I714" t="n">
         <v>16</v>
@@ -54406,10 +52996,8 @@
           <t>4903784464</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:06</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44390.936875</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
@@ -54485,10 +53073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:29:03</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44390.93684027778</v>
       </c>
       <c r="I716" t="n">
         <v>1</v>
@@ -54564,10 +53150,8 @@
           <t>4903784028</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:56</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44390.93675925926</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
@@ -54639,10 +53223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:54</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44390.93673611111</v>
       </c>
       <c r="I718" t="n">
         <v>240</v>
@@ -54718,10 +53300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:52</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44390.93671296296</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -54797,10 +53377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:51</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44390.93670138889</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
@@ -54872,10 +53450,8 @@
           <t>4903788684</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:49</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44390.93667824074</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
@@ -54939,10 +53515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:47</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44390.93665509259</v>
       </c>
       <c r="I722" t="n">
         <v>2</v>
@@ -55010,10 +53584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:46</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44390.93664351852</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
@@ -55085,10 +53657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:43</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44390.9366087963</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
@@ -55152,10 +53722,8 @@
           <t>4903783289</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:38</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44390.93655092592</v>
       </c>
       <c r="I725" t="n">
         <v>16</v>
@@ -55215,10 +53783,8 @@
           <t>4903788101</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:36</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44390.93652777778</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
@@ -55294,10 +53860,8 @@
           <t>4903783115</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:33</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44390.93649305555</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -55373,10 +53937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:25</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44390.93640046296</v>
       </c>
       <c r="I728" t="n">
         <v>2</v>
@@ -55452,10 +54014,8 @@
           <t>4903777841</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:19</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44390.93633101852</v>
       </c>
       <c r="I729" t="n">
         <v>5</v>
@@ -55531,10 +54091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:13</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44390.93626157408</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -55610,10 +54168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:12</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44390.93625</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
@@ -55682,10 +54238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:10</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44390.93622685185</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
@@ -55753,10 +54307,8 @@
           <t>4903786945</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:09</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44390.93621527778</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
@@ -55828,10 +54380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:28:06</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44390.93618055555</v>
       </c>
       <c r="I734" t="n">
         <v>148</v>
@@ -55903,10 +54453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:58</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44390.93608796296</v>
       </c>
       <c r="I735" t="n">
         <v>956</v>
@@ -55970,10 +54518,8 @@
           <t>4903786328</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:55</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44390.93605324074</v>
       </c>
       <c r="I736" t="n">
         <v>4</v>
@@ -56037,10 +54583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:54</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44390.93604166667</v>
       </c>
       <c r="I737" t="n">
         <v>722</v>
@@ -56108,10 +54652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:52</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44390.93601851852</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
@@ -56179,10 +54721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:50</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44390.93599537037</v>
       </c>
       <c r="I739" t="n">
         <v>185</v>
@@ -56250,10 +54790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:45</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44390.9359375</v>
       </c>
       <c r="I740" t="n">
         <v>1</v>
@@ -56321,10 +54859,8 @@
           <t>4903776226</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:43</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44390.93591435185</v>
       </c>
       <c r="I741" t="n">
         <v>13</v>
@@ -56392,10 +54928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:36</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44390.93583333334</v>
       </c>
       <c r="I742" t="n">
         <v>2</v>
@@ -56471,10 +55005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:33</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44390.93579861111</v>
       </c>
       <c r="I743" t="n">
         <v>0</v>
@@ -56542,10 +55074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:30</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44390.93576388889</v>
       </c>
       <c r="I744" t="n">
         <v>23</v>
@@ -56605,10 +55135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:30</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44390.93576388889</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
@@ -56676,10 +55204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:24</t>
-        </is>
+      <c r="H746" s="1" t="n">
+        <v>44390.93569444444</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
@@ -56752,10 +55278,8 @@
           <t>4903780202</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:24</t>
-        </is>
+      <c r="H747" s="1" t="n">
+        <v>44390.93569444444</v>
       </c>
       <c r="I747" t="n">
         <v>9</v>
@@ -56819,10 +55343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:22</t>
-        </is>
+      <c r="H748" s="1" t="n">
+        <v>44390.9356712963</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
@@ -56898,10 +55420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:19</t>
-        </is>
+      <c r="H749" s="1" t="n">
+        <v>44390.93563657408</v>
       </c>
       <c r="I749" t="n">
         <v>333</v>
@@ -56977,10 +55497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:18</t>
-        </is>
+      <c r="H750" s="1" t="n">
+        <v>44390.935625</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
@@ -57044,10 +55562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:15</t>
-        </is>
+      <c r="H751" s="1" t="n">
+        <v>44390.93559027778</v>
       </c>
       <c r="I751" t="n">
         <v>768</v>
@@ -57107,10 +55623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:09</t>
-        </is>
+      <c r="H752" s="1" t="n">
+        <v>44390.93552083334</v>
       </c>
       <c r="I752" t="n">
         <v>21</v>
@@ -57174,10 +55688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H753" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:27:06</t>
-        </is>
+      <c r="H753" s="1" t="n">
+        <v>44390.93548611111</v>
       </c>
       <c r="I753" t="n">
         <v>14</v>
@@ -57253,10 +55765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H754" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:26:35</t>
-        </is>
+      <c r="H754" s="1" t="n">
+        <v>44390.93512731481</v>
       </c>
       <c r="I754" t="n">
         <v>0</v>
@@ -57324,10 +55834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H755" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:26:31</t>
-        </is>
+      <c r="H755" s="1" t="n">
+        <v>44390.93508101852</v>
       </c>
       <c r="I755" t="n">
         <v>63</v>
@@ -57403,10 +55911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H756" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:26:21</t>
-        </is>
+      <c r="H756" s="1" t="n">
+        <v>44390.93496527777</v>
       </c>
       <c r="I756" t="n">
         <v>142</v>
@@ -57482,10 +55988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H757" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:26:17</t>
-        </is>
+      <c r="H757" s="1" t="n">
+        <v>44390.93491898148</v>
       </c>
       <c r="I757" t="n">
         <v>2</v>
@@ -57553,10 +56057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H758" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:26:14</t>
-        </is>
+      <c r="H758" s="1" t="n">
+        <v>44390.93488425926</v>
       </c>
       <c r="I758" t="n">
         <v>0</v>
@@ -57632,10 +56134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H759" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:25:59</t>
-        </is>
+      <c r="H759" s="1" t="n">
+        <v>44390.93471064815</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
@@ -57713,10 +56213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H760" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:25:56</t>
-        </is>
+      <c r="H760" s="1" t="n">
+        <v>44390.93467592593</v>
       </c>
       <c r="I760" t="n">
         <v>1</v>
@@ -57784,10 +56282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H761" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:25:47</t>
-        </is>
+      <c r="H761" s="1" t="n">
+        <v>44390.93457175926</v>
       </c>
       <c r="I761" t="n">
         <v>1</v>
@@ -57855,10 +56351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H762" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:25:46</t>
-        </is>
+      <c r="H762" s="1" t="n">
+        <v>44390.93456018518</v>
       </c>
       <c r="I762" t="n">
         <v>0</v>
